--- a/biology/Biochimie/Glucose-1,6-bisphosphate_synthase/Glucose-1,6-bisphosphate_synthase.xlsx
+++ b/biology/Biochimie/Glucose-1,6-bisphosphate_synthase/Glucose-1,6-bisphosphate_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glucose-1,6-bisphosphate synthase est une phosphotransférase qui catalyse la réaction :
 3-phospho-D-glycérol phosphate + α-D-glucose-1-phosphate  
         ⇌
     {\displaystyle \rightleftharpoons }
   3-phospho-D-glycérate + α-D-glucose-1,6-bisphosphate.
-Cette enzyme intervient dans le métabolisme du saccharose et de l'amidon. Elle requiert un cation métallique bivalent comme cofacteur, tel que Zn2+, Mg2+, Mn2+, Ca2+, Ni2+, Cu2+, voire Cd2+[1]. Le glucose-1,6-bisphosphate produit par cette réaction est lui-même un cofacteur de la phosphoglucomutase.
+Cette enzyme intervient dans le métabolisme du saccharose et de l'amidon. Elle requiert un cation métallique bivalent comme cofacteur, tel que Zn2+, Mg2+, Mn2+, Ca2+, Ni2+, Cu2+, voire Cd2+. Le glucose-1,6-bisphosphate produit par cette réaction est lui-même un cofacteur de la phosphoglucomutase.
 </t>
         </is>
       </c>
